--- a/Data Sheets/Sandbox.xlsx
+++ b/Data Sheets/Sandbox.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\themi\AppData\LocalLow\Deep Water Studio\UBOAT\Mods\Ports-Expanded\Data Sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFDDCF41-5CD2-45B4-8F2E-86F5C61A499E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C18A2B7F-F2C4-4EDF-BA54-FF6C22C33F36}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18405" yWindow="10110" windowWidth="18120" windowHeight="10410" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14115" yWindow="1905" windowWidth="23340" windowHeight="16140" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tasks" sheetId="14" r:id="rId1"/>
@@ -1640,13 +1640,13 @@
     <t>St-Nazaire</t>
   </si>
   <si>
-    <t xml:space="preserve">Port of Helgoland </t>
-  </si>
-  <si>
     <t>Port of Trondheim</t>
   </si>
   <si>
     <t>Port of Hammerfest</t>
+  </si>
+  <si>
+    <t>Port of Helgoland</t>
   </si>
 </sst>
 </file>
@@ -5994,11 +5994,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5434697-C574-4C48-BC97-E575AFF448FC}">
   <dimension ref="A1:H104"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B89" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="C70" sqref="C70"/>
+      <selection pane="bottomRight" activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8440,11 +8440,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70CFB73B-6E2D-4CE0-AF00-3710B34C4AD8}">
   <dimension ref="A1:L188"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C68" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C65" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="A76" sqref="A76"/>
+      <selection pane="bottomRight" activeCell="B76" sqref="B76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10838,7 +10838,7 @@
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" s="42" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B76" s="42" t="s">
         <v>143</v>
@@ -10871,7 +10871,7 @@
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" s="49" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="B77" s="49" t="s">
         <v>98</v>
@@ -11304,7 +11304,7 @@
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92" s="42" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B92" s="42" t="s">
         <v>102</v>

--- a/Data Sheets/Sandbox.xlsx
+++ b/Data Sheets/Sandbox.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\themi\AppData\LocalLow\Deep Water Studio\UBOAT\Mods\Ports-Expanded\Data Sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C18A2B7F-F2C4-4EDF-BA54-FF6C22C33F36}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8FBC64D-0C4D-4BC1-9D4E-3334CFA19ACA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14115" yWindow="1905" windowWidth="23340" windowHeight="16140" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="23340" windowHeight="16140" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tasks" sheetId="14" r:id="rId1"/>
@@ -503,9 +503,6 @@
     <t>Pola</t>
   </si>
   <si>
-    <t>Rota port</t>
-  </si>
-  <si>
     <t>Ship</t>
   </si>
   <si>
@@ -1647,6 +1644,9 @@
   </si>
   <si>
     <t>Port of Helgoland</t>
+  </si>
+  <si>
+    <t>Rota Port</t>
   </si>
 </sst>
 </file>
@@ -2624,16 +2624,16 @@
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>172</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>173</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>53</v>
@@ -2642,24 +2642,24 @@
         <v>52</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>174</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>175</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>51</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>176</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="23" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B2" s="19">
         <v>14772</v>
@@ -2679,16 +2679,16 @@
       <c r="G2" s="18"/>
       <c r="H2" s="18"/>
       <c r="I2" s="18" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="J2" s="18"/>
       <c r="K2" s="18" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="23" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B3" s="19">
         <v>14741</v>
@@ -2708,16 +2708,16 @@
       <c r="G3" s="18"/>
       <c r="H3" s="18"/>
       <c r="I3" s="18" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="J3" s="18"/>
       <c r="K3" s="18" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="23" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B4" s="19">
         <v>15072</v>
@@ -2737,16 +2737,16 @@
       <c r="G4" s="18"/>
       <c r="H4" s="18"/>
       <c r="I4" s="18" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="J4" s="18"/>
       <c r="K4" s="18" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="23" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B5" s="19">
         <v>14494</v>
@@ -2766,16 +2766,16 @@
       <c r="G5" s="18"/>
       <c r="H5" s="18"/>
       <c r="I5" s="18" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="J5" s="18"/>
       <c r="K5" s="18" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="23" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B6" s="19">
         <v>14710</v>
@@ -2795,16 +2795,16 @@
       <c r="G6" s="18"/>
       <c r="H6" s="18"/>
       <c r="I6" s="18" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="J6" s="18"/>
       <c r="K6" s="18" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="23" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B7" s="19">
         <v>15080</v>
@@ -2824,16 +2824,16 @@
       <c r="G7" s="18"/>
       <c r="H7" s="18"/>
       <c r="I7" s="18" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="J7" s="18"/>
       <c r="K7" s="18" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="23" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B8" s="19">
         <v>14491</v>
@@ -2853,16 +2853,16 @@
       <c r="G8" s="18"/>
       <c r="H8" s="18"/>
       <c r="I8" s="18" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="J8" s="18"/>
       <c r="K8" s="18" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B9" s="19">
         <v>14906</v>
@@ -2882,16 +2882,16 @@
       <c r="G9" s="18"/>
       <c r="H9" s="18"/>
       <c r="I9" s="18" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="J9" s="18"/>
       <c r="K9" s="18" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="23" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B10" s="19">
         <v>15077</v>
@@ -2911,16 +2911,16 @@
       <c r="G10" s="18"/>
       <c r="H10" s="18"/>
       <c r="I10" s="18" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="J10" s="18"/>
       <c r="K10" s="18" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="23" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B11" s="19">
         <v>14741</v>
@@ -2940,16 +2940,16 @@
       <c r="G11" s="18"/>
       <c r="H11" s="18"/>
       <c r="I11" s="18" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="J11" s="18"/>
       <c r="K11" s="18" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="23" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B12" s="19">
         <v>14489</v>
@@ -2969,16 +2969,16 @@
       <c r="G12" s="18"/>
       <c r="H12" s="18"/>
       <c r="I12" s="18" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="J12" s="18"/>
       <c r="K12" s="18" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="23" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B13" s="19">
         <v>15072</v>
@@ -2998,16 +2998,16 @@
       <c r="G13" s="18"/>
       <c r="H13" s="18"/>
       <c r="I13" s="18" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="J13" s="18"/>
       <c r="K13" s="18" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="23" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B14" s="19">
         <v>14494</v>
@@ -3027,16 +3027,16 @@
       <c r="G14" s="18"/>
       <c r="H14" s="18"/>
       <c r="I14" s="18" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="J14" s="18"/>
       <c r="K14" s="18" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="23" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B15" s="7">
         <v>15658</v>
@@ -3054,15 +3054,15 @@
         <v>0</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="23" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B16" s="7">
         <v>14784</v>
@@ -3080,15 +3080,15 @@
         <v>0</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="23" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B17" s="17">
         <v>14759</v>
@@ -3108,16 +3108,16 @@
       <c r="G17" s="34"/>
       <c r="H17" s="34"/>
       <c r="I17" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J17" s="34"/>
       <c r="K17" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="23" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B18" s="17">
         <v>16325</v>
@@ -3135,16 +3135,16 @@
         <v>0</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J18" s="34"/>
       <c r="K18" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="23" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B19" s="17">
         <v>14712</v>
@@ -3162,16 +3162,16 @@
         <v>0</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J19" s="34"/>
       <c r="K19" s="2" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B20" s="17">
         <v>16959</v>
@@ -3189,18 +3189,18 @@
         <v>5.2786099999999996</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="J20" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="K20" s="2" t="s">
         <v>437</v>
-      </c>
-      <c r="K20" s="2" t="s">
-        <v>438</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="23" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B21" s="17">
         <v>14782</v>
@@ -3218,15 +3218,15 @@
         <v>0</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="23" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B22" s="17">
         <v>16334</v>
@@ -3244,15 +3244,15 @@
         <v>0</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="29" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B23" s="33">
         <v>16332</v>
@@ -3272,16 +3272,16 @@
       <c r="G23" s="31"/>
       <c r="H23" s="31"/>
       <c r="I23" s="32" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J23" s="31"/>
       <c r="K23" s="32" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B24" s="17">
         <v>16959</v>
@@ -3299,18 +3299,18 @@
         <v>-0.55295209999999995</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="23" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B25" s="17">
         <v>14782</v>
@@ -3328,16 +3328,16 @@
         <v>0</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J25" s="2"/>
       <c r="K25" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="23" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B26" s="17">
         <v>16295</v>
@@ -3355,16 +3355,16 @@
         <v>0</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J26" s="2"/>
       <c r="K26" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="23" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B27" s="17">
         <v>16291</v>
@@ -3382,16 +3382,16 @@
         <v>0</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J27" s="2"/>
       <c r="K27" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="23" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B28" s="17">
         <v>14781</v>
@@ -3409,16 +3409,16 @@
         <v>0</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J28" s="34"/>
       <c r="K28" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="23" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B29" s="17">
         <v>16243</v>
@@ -3436,16 +3436,16 @@
         <v>0</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J29" s="34"/>
       <c r="K29" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="23" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B30" s="17">
         <v>15122</v>
@@ -3463,16 +3463,16 @@
         <v>0</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J30" s="34"/>
       <c r="K30" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="23" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B31" s="17">
         <v>16357</v>
@@ -3490,15 +3490,15 @@
         <v>0</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="23" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B32" s="7">
         <v>14784</v>
@@ -3518,16 +3518,16 @@
       <c r="G32" s="34"/>
       <c r="H32" s="34"/>
       <c r="I32" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J32" s="34"/>
       <c r="K32" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="23" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B33" s="7">
         <v>15658</v>
@@ -3545,15 +3545,15 @@
         <v>0</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="29" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B34" s="30">
         <v>15655</v>
@@ -3573,16 +3573,16 @@
       <c r="G34" s="31"/>
       <c r="H34" s="31"/>
       <c r="I34" s="32" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J34" s="31"/>
       <c r="K34" s="32" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="23" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B35" s="17">
         <v>14772</v>
@@ -3600,15 +3600,15 @@
         <v>0</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="23" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B36" s="17">
         <v>16398</v>
@@ -3628,16 +3628,16 @@
       <c r="G36" s="34"/>
       <c r="H36" s="34"/>
       <c r="I36" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J36" s="34"/>
       <c r="K36" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="29" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B37" s="33">
         <v>15957</v>
@@ -3657,16 +3657,16 @@
       <c r="G37" s="31"/>
       <c r="H37" s="31"/>
       <c r="I37" s="32" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J37" s="31"/>
       <c r="K37" s="32" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="23" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B38" s="7">
         <v>15657</v>
@@ -3686,16 +3686,16 @@
       <c r="G38" s="34"/>
       <c r="H38" s="34"/>
       <c r="I38" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J38" s="34"/>
       <c r="K38" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="29" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B39" s="30">
         <v>14784</v>
@@ -3715,16 +3715,16 @@
       <c r="G39" s="31"/>
       <c r="H39" s="31"/>
       <c r="I39" s="32" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J39" s="31"/>
       <c r="K39" s="32" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="23" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B40" s="17">
         <v>14772</v>
@@ -3744,16 +3744,16 @@
       <c r="G40" s="34"/>
       <c r="H40" s="34"/>
       <c r="I40" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J40" s="34"/>
       <c r="K40" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="29" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B41" s="33">
         <v>15383</v>
@@ -3773,16 +3773,16 @@
       <c r="G41" s="31"/>
       <c r="H41" s="31"/>
       <c r="I41" s="32" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J41" s="31"/>
       <c r="K41" s="32" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="29" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B42" s="33">
         <v>16403</v>
@@ -3802,16 +3802,16 @@
       <c r="G42" s="31"/>
       <c r="H42" s="31"/>
       <c r="I42" s="32" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J42" s="31"/>
       <c r="K42" s="32" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="23" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B43" s="17">
         <v>14597</v>
@@ -3829,16 +3829,16 @@
         <v>0</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J43" s="2"/>
       <c r="K43" s="2" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="23" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B44" s="17">
         <v>14702</v>
@@ -3858,16 +3858,16 @@
       <c r="G44" s="34"/>
       <c r="H44" s="34"/>
       <c r="I44" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J44" s="34"/>
       <c r="K44" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="23" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B45" s="17">
         <v>14719</v>
@@ -3885,15 +3885,15 @@
         <v>0</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K45" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="23" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B46" s="17">
         <v>14772</v>
@@ -3911,15 +3911,15 @@
         <v>0</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K46" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="23" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B47" s="17">
         <v>16331</v>
@@ -3937,15 +3937,15 @@
         <v>0</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K47" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="29" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B48" s="33">
         <v>15373</v>
@@ -3965,16 +3965,16 @@
       <c r="G48" s="31"/>
       <c r="H48" s="31"/>
       <c r="I48" s="32" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J48" s="31"/>
       <c r="K48" s="32" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="23" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B49" s="17">
         <v>16360</v>
@@ -3992,15 +3992,15 @@
         <v>0</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K49" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="23" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B50" s="7">
         <v>16355</v>
@@ -4020,16 +4020,16 @@
       <c r="G50" s="34"/>
       <c r="H50" s="34"/>
       <c r="I50" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J50" s="34"/>
       <c r="K50" s="2" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="23" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B51" s="17">
         <v>14938</v>
@@ -4049,16 +4049,16 @@
       <c r="G51" s="34"/>
       <c r="H51" s="34"/>
       <c r="I51" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J51" s="34"/>
       <c r="K51" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="29" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B52" s="33">
         <v>16312</v>
@@ -4078,16 +4078,16 @@
       <c r="G52" s="31"/>
       <c r="H52" s="31"/>
       <c r="I52" s="32" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J52" s="31"/>
       <c r="K52" s="32" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="23" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B53" s="17">
         <v>16314</v>
@@ -4105,15 +4105,15 @@
         <v>0</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K53" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="23" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B54" s="17">
         <v>15061</v>
@@ -4131,15 +4131,15 @@
         <v>0</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K54" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="29" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B55" s="33">
         <v>15957</v>
@@ -4159,16 +4159,16 @@
       <c r="G55" s="31"/>
       <c r="H55" s="31"/>
       <c r="I55" s="32" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J55" s="31"/>
       <c r="K55" s="32" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="23" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B56" s="17">
         <v>14713</v>
@@ -4186,16 +4186,16 @@
         <v>0</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J56" s="34"/>
       <c r="K56" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="29" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B57" s="30">
         <v>16309</v>
@@ -4215,16 +4215,16 @@
       <c r="G57" s="31"/>
       <c r="H57" s="31"/>
       <c r="I57" s="32" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J57" s="31"/>
       <c r="K57" s="32" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="23" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B58" s="7">
         <v>14927</v>
@@ -4242,16 +4242,16 @@
         <v>0</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J58" s="34"/>
       <c r="K58" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="23" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B59" s="7">
         <v>15835</v>
@@ -4269,16 +4269,16 @@
         <v>0</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J59" s="34"/>
       <c r="K59" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="29" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B60" s="30">
         <v>14784</v>
@@ -4298,16 +4298,16 @@
       <c r="G60" s="31"/>
       <c r="H60" s="31"/>
       <c r="I60" s="32" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J60" s="31"/>
       <c r="K60" s="32" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="23" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B61" s="17">
         <v>14784</v>
@@ -4325,16 +4325,16 @@
         <v>0</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J61" s="2"/>
       <c r="K61" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="23" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B62" s="17">
         <v>16334</v>
@@ -4352,16 +4352,16 @@
         <v>0</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J62" s="2"/>
       <c r="K62" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="29" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B63" s="30">
         <v>16332</v>
@@ -4381,16 +4381,16 @@
       <c r="G63" s="31"/>
       <c r="H63" s="31"/>
       <c r="I63" s="32" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J63" s="32"/>
       <c r="K63" s="32" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B64" s="17">
         <v>16959</v>
@@ -4408,18 +4408,18 @@
         <v>-1.207212</v>
       </c>
       <c r="I64" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="J64" s="2" t="s">
         <v>433</v>
       </c>
-      <c r="J64" s="2" t="s">
+      <c r="K64" s="2" t="s">
         <v>434</v>
-      </c>
-      <c r="K64" s="2" t="s">
-        <v>435</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="23" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B65" s="17">
         <v>14772</v>
@@ -4437,15 +4437,15 @@
         <v>0</v>
       </c>
       <c r="I65" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K65" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="23" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B66" s="17">
         <v>15960</v>
@@ -4463,15 +4463,15 @@
         <v>0</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K66" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="29" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B67" s="30">
         <v>16250</v>
@@ -4491,16 +4491,16 @@
       <c r="G67" s="31"/>
       <c r="H67" s="31"/>
       <c r="I67" s="32" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J67" s="31"/>
       <c r="K67" s="32" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="29" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B68" s="33">
         <v>15957</v>
@@ -4520,16 +4520,16 @@
       <c r="G68" s="31"/>
       <c r="H68" s="31"/>
       <c r="I68" s="32" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J68" s="31"/>
       <c r="K68" s="32" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="23" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B69" s="17">
         <v>14782</v>
@@ -4547,16 +4547,16 @@
         <v>0</v>
       </c>
       <c r="I69" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J69" s="2"/>
       <c r="K69" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="23" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B70" s="7">
         <v>16324</v>
@@ -4574,16 +4574,16 @@
         <v>0</v>
       </c>
       <c r="I70" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J70" s="2"/>
       <c r="K70" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="71" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="23" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B71" s="17">
         <v>16331</v>
@@ -4603,16 +4603,16 @@
       <c r="G71" s="34"/>
       <c r="H71" s="34"/>
       <c r="I71" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J71" s="34"/>
       <c r="K71" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="23" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B72" s="17">
         <v>16360</v>
@@ -4630,15 +4630,15 @@
         <v>0</v>
       </c>
       <c r="I72" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K72" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="23" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B73" s="17">
         <v>16033</v>
@@ -4656,15 +4656,15 @@
         <v>0</v>
       </c>
       <c r="I73" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K73" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="29" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B74" s="33">
         <v>15957</v>
@@ -4684,16 +4684,16 @@
       <c r="G74" s="31"/>
       <c r="H74" s="31"/>
       <c r="I74" s="32" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J74" s="31"/>
       <c r="K74" s="32" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="23" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B75" s="17">
         <v>14772</v>
@@ -4711,15 +4711,15 @@
         <v>0</v>
       </c>
       <c r="I75" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K75" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="29" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B76" s="33">
         <v>15378</v>
@@ -4739,16 +4739,16 @@
       <c r="G76" s="31"/>
       <c r="H76" s="31"/>
       <c r="I76" s="32" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J76" s="31"/>
       <c r="K76" s="32" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="23" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B77" s="7">
         <v>15657</v>
@@ -4766,15 +4766,15 @@
         <v>0</v>
       </c>
       <c r="I77" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K77" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="23" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B78" s="7">
         <v>15095</v>
@@ -4792,15 +4792,15 @@
         <v>0</v>
       </c>
       <c r="I78" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K78" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="23" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B79" s="17">
         <v>15959</v>
@@ -4818,15 +4818,15 @@
         <v>0</v>
       </c>
       <c r="I79" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K79" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="23" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B80" s="7">
         <v>16360</v>
@@ -4844,15 +4844,15 @@
         <v>0</v>
       </c>
       <c r="I80" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K80" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="29" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B81" s="30">
         <v>16355</v>
@@ -4872,16 +4872,16 @@
       <c r="G81" s="31"/>
       <c r="H81" s="31"/>
       <c r="I81" s="32" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J81" s="31"/>
       <c r="K81" s="32" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="29" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B82" s="30">
         <v>15089</v>
@@ -4901,16 +4901,16 @@
       <c r="G82" s="31"/>
       <c r="H82" s="31"/>
       <c r="I82" s="32" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J82" s="31"/>
       <c r="K82" s="32" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="29" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B83" s="33">
         <v>15957</v>
@@ -4930,16 +4930,16 @@
       <c r="G83" s="31"/>
       <c r="H83" s="31"/>
       <c r="I83" s="32" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J83" s="31"/>
       <c r="K83" s="32" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="23" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B84" s="17">
         <v>14772</v>
@@ -4959,16 +4959,16 @@
       <c r="G84" s="34"/>
       <c r="H84" s="34"/>
       <c r="I84" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J84" s="34"/>
       <c r="K84" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="23" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B85" s="17">
         <v>15959</v>
@@ -4988,16 +4988,16 @@
       <c r="G85" s="34"/>
       <c r="H85" s="34"/>
       <c r="I85" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J85" s="34"/>
       <c r="K85" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="23" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B86" s="17">
         <v>16558</v>
@@ -5017,16 +5017,16 @@
       <c r="G86" s="34"/>
       <c r="H86" s="34"/>
       <c r="I86" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J86" s="34"/>
       <c r="K86" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="23" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B87" s="7">
         <v>16282</v>
@@ -5046,16 +5046,16 @@
       <c r="G87" s="34"/>
       <c r="H87" s="34"/>
       <c r="I87" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J87" s="34"/>
       <c r="K87" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="29" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B88" s="33">
         <v>15957</v>
@@ -5075,16 +5075,16 @@
       <c r="G88" s="31"/>
       <c r="H88" s="31"/>
       <c r="I88" s="32" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J88" s="31"/>
       <c r="K88" s="32" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="23" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B89" s="7">
         <v>15162</v>
@@ -5104,16 +5104,16 @@
       <c r="G89" s="34"/>
       <c r="H89" s="34"/>
       <c r="I89" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J89" s="34"/>
       <c r="K89" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="29" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B90" s="30">
         <v>14784</v>
@@ -5133,16 +5133,16 @@
       <c r="G90" s="31"/>
       <c r="H90" s="31"/>
       <c r="I90" s="32" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J90" s="31"/>
       <c r="K90" s="32" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="23" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B91" s="7">
         <v>14784</v>
@@ -5162,16 +5162,16 @@
       <c r="G91" s="34"/>
       <c r="H91" s="34"/>
       <c r="I91" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J91" s="34"/>
       <c r="K91" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="23" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B92" s="7">
         <v>16294</v>
@@ -5191,16 +5191,16 @@
       <c r="G92" s="34"/>
       <c r="H92" s="34"/>
       <c r="I92" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J92" s="34"/>
       <c r="K92" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="23" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B93" s="17">
         <v>15657</v>
@@ -5220,16 +5220,16 @@
       <c r="G93" s="34"/>
       <c r="H93" s="34"/>
       <c r="I93" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J93" s="34"/>
       <c r="K93" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="29" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B94" s="33">
         <v>14784</v>
@@ -5249,16 +5249,16 @@
       <c r="G94" s="31"/>
       <c r="H94" s="31"/>
       <c r="I94" s="32" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J94" s="31"/>
       <c r="K94" s="32" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="23" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B95" s="17">
         <v>15656</v>
@@ -5278,16 +5278,16 @@
       <c r="G95" s="34"/>
       <c r="H95" s="34"/>
       <c r="I95" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J95" s="34"/>
       <c r="K95" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="23" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B96" s="7">
         <v>15961</v>
@@ -5307,16 +5307,16 @@
       <c r="G96" s="34"/>
       <c r="H96" s="34"/>
       <c r="I96" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J96" s="34"/>
       <c r="K96" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="23" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B97" s="7">
         <v>16304</v>
@@ -5336,16 +5336,16 @@
       <c r="G97" s="34"/>
       <c r="H97" s="34"/>
       <c r="I97" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J97" s="34"/>
       <c r="K97" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="23" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B98" s="17">
         <v>15957</v>
@@ -5365,16 +5365,16 @@
       <c r="G98" s="34"/>
       <c r="H98" s="34"/>
       <c r="I98" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J98" s="34"/>
       <c r="K98" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="23" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B99" s="7">
         <v>14784</v>
@@ -5394,16 +5394,16 @@
       <c r="G99" s="34"/>
       <c r="H99" s="34"/>
       <c r="I99" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J99" s="34"/>
       <c r="K99" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="23" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B100" s="7">
         <v>14771</v>
@@ -5423,16 +5423,16 @@
       <c r="G100" s="34"/>
       <c r="H100" s="34"/>
       <c r="I100" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J100" s="34"/>
       <c r="K100" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="23" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B101" s="50">
         <v>15741</v>
@@ -5450,15 +5450,15 @@
         <v>0</v>
       </c>
       <c r="I101" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K101" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="23" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B102" s="17">
         <v>14733</v>
@@ -5478,16 +5478,16 @@
       <c r="G102" s="34"/>
       <c r="H102" s="34"/>
       <c r="I102" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J102" s="34"/>
       <c r="K102" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="29" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B103" s="33">
         <v>15379</v>
@@ -5507,16 +5507,16 @@
       <c r="G103" s="31"/>
       <c r="H103" s="31"/>
       <c r="I103" s="32" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J103" s="31"/>
       <c r="K103" s="32" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="44" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B104" s="43">
         <v>14784</v>
@@ -5536,16 +5536,16 @@
       <c r="G104" s="41"/>
       <c r="H104" s="41"/>
       <c r="I104" s="42" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J104" s="42"/>
       <c r="K104" s="42" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="44" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B105" s="43">
         <v>16334</v>
@@ -5565,16 +5565,16 @@
       <c r="G105" s="41"/>
       <c r="H105" s="41"/>
       <c r="I105" s="42" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J105" s="41"/>
       <c r="K105" s="42" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="45" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B106" s="48">
         <v>16332</v>
@@ -5594,11 +5594,11 @@
       <c r="G106" s="46"/>
       <c r="H106" s="46"/>
       <c r="I106" s="47" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J106" s="46"/>
       <c r="K106" s="47" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
@@ -5994,11 +5994,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5434697-C574-4C48-BC97-E575AFF448FC}">
   <dimension ref="A1:H104"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B32" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B65" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="A43" sqref="A43"/>
+      <selection pane="bottomRight" activeCell="A92" sqref="A92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6065,13 +6065,13 @@
     </row>
     <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A3" s="34" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B3" s="34" t="s">
         <v>67</v>
       </c>
       <c r="C3" s="34" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D3" s="20">
         <v>36.77402</v>
@@ -6111,7 +6111,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B5" t="s">
         <v>67</v>
@@ -6157,7 +6157,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>67</v>
@@ -6203,7 +6203,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>67</v>
@@ -6295,7 +6295,7 @@
     </row>
     <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B13" t="s">
         <v>67</v>
@@ -6318,7 +6318,7 @@
     </row>
     <row r="14" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A14" s="34" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B14" s="34" t="s">
         <v>67</v>
@@ -6341,7 +6341,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>67</v>
@@ -6390,7 +6390,7 @@
         <v>108</v>
       </c>
       <c r="B17" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C17" t="s">
         <v>5</v>
@@ -6456,7 +6456,7 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B20" t="s">
         <v>67</v>
@@ -6502,7 +6502,7 @@
     </row>
     <row r="22" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A22" s="34" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B22" s="34" t="s">
         <v>67</v>
@@ -6525,7 +6525,7 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B23" t="s">
         <v>67</v>
@@ -6571,7 +6571,7 @@
     </row>
     <row r="25" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B25" t="s">
         <v>67</v>
@@ -6594,7 +6594,7 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B26" t="s">
         <v>67</v>
@@ -6617,13 +6617,13 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B27" t="s">
         <v>67</v>
       </c>
       <c r="C27" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D27" s="4">
         <v>41.309190000000001</v>
@@ -6663,10 +6663,10 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C29" t="s">
         <v>3</v>
@@ -6686,10 +6686,10 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C30" t="s">
         <v>3</v>
@@ -6709,10 +6709,10 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C31" t="s">
         <v>3</v>
@@ -6732,10 +6732,10 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C32" t="s">
         <v>3</v>
@@ -6755,10 +6755,10 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C33" s="34" t="s">
         <v>3</v>
@@ -6778,10 +6778,10 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C34" t="s">
         <v>3</v>
@@ -6801,10 +6801,10 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C35" t="s">
         <v>3</v>
@@ -6824,10 +6824,10 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C36" t="s">
         <v>3</v>
@@ -6870,7 +6870,7 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="34" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B38" s="34" t="s">
         <v>67</v>
@@ -6893,7 +6893,7 @@
     </row>
     <row r="39" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A39" s="34" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B39" s="34" t="s">
         <v>67</v>
@@ -7077,13 +7077,13 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="34" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B47" s="34" t="s">
         <v>67</v>
       </c>
       <c r="C47" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D47" s="4">
         <v>41.024039999999999</v>
@@ -7146,7 +7146,7 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="34" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>67</v>
@@ -7198,7 +7198,7 @@
         <v>67</v>
       </c>
       <c r="C52" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D52" s="5">
         <v>45.283259999999999</v>
@@ -7238,7 +7238,7 @@
     </row>
     <row r="54" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A54" s="34" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B54" s="34" t="s">
         <v>67</v>
@@ -7333,7 +7333,7 @@
         <v>109</v>
       </c>
       <c r="B58" s="34" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C58" t="s">
         <v>4</v>
@@ -7376,7 +7376,7 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="34" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B60" s="34" t="s">
         <v>67</v>
@@ -7422,7 +7422,7 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>67</v>
@@ -7445,7 +7445,7 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B63" t="s">
         <v>67</v>
@@ -7468,7 +7468,7 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B64" t="s">
         <v>67</v>
@@ -7494,7 +7494,7 @@
         <v>106</v>
       </c>
       <c r="B65" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C65" t="s">
         <v>4</v>
@@ -7537,7 +7537,7 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B67" t="s">
         <v>67</v>
@@ -7583,7 +7583,7 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B69" t="s">
         <v>67</v>
@@ -7609,7 +7609,7 @@
         <v>107</v>
       </c>
       <c r="B70" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C70" t="s">
         <v>4</v>
@@ -7652,10 +7652,10 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C72" t="s">
         <v>3</v>
@@ -7675,10 +7675,10 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C73" t="s">
         <v>3</v>
@@ -7698,10 +7698,10 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C74" t="s">
         <v>3</v>
@@ -7721,10 +7721,10 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C75" t="s">
         <v>3</v>
@@ -7744,10 +7744,10 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C76" s="34" t="s">
         <v>3</v>
@@ -7767,7 +7767,7 @@
     </row>
     <row r="77" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A77" s="21" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B77" t="s">
         <v>67</v>
@@ -7836,7 +7836,7 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B80" t="s">
         <v>67</v>
@@ -7859,7 +7859,7 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="34" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B81" s="34" t="s">
         <v>67</v>
@@ -7931,10 +7931,10 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="34" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B84" s="34" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C84" s="34" t="s">
         <v>3</v>
@@ -7958,7 +7958,7 @@
         <v>104</v>
       </c>
       <c r="B85" s="34" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C85" s="34" t="s">
         <v>3</v>
@@ -7982,7 +7982,7 @@
         <v>105</v>
       </c>
       <c r="B86" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C86" s="34" t="s">
         <v>3</v>
@@ -8003,10 +8003,10 @@
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B87" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C87" t="s">
         <v>3</v>
@@ -8026,10 +8026,10 @@
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B88" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C88" t="s">
         <v>3</v>
@@ -8052,7 +8052,7 @@
         <v>110</v>
       </c>
       <c r="B89" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C89" s="34" t="s">
         <v>3</v>
@@ -8072,7 +8072,7 @@
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B90" t="s">
         <v>67</v>
@@ -8095,7 +8095,7 @@
     </row>
     <row r="91" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B91" t="s">
         <v>67</v>
@@ -8164,7 +8164,7 @@
     </row>
     <row r="94" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B94" t="s">
         <v>67</v>
@@ -8187,7 +8187,7 @@
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B95" t="s">
         <v>67</v>
@@ -8210,7 +8210,7 @@
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B96" t="s">
         <v>67</v>
@@ -8233,7 +8233,7 @@
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B97" t="s">
         <v>67</v>
@@ -8302,7 +8302,7 @@
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="34" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B100" s="34" t="s">
         <v>67</v>
@@ -8348,7 +8348,7 @@
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B102" t="s">
         <v>67</v>
@@ -8394,7 +8394,7 @@
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="49" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B104" s="49" t="s">
         <v>67</v>
@@ -8440,11 +8440,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70CFB73B-6E2D-4CE0-AF00-3710B34C4AD8}">
   <dimension ref="A1:L188"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C65" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C83" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="B76" sqref="B76"/>
+      <selection pane="bottomRight" activeCell="A108" sqref="A108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8504,13 +8504,13 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B2" t="s">
         <v>137</v>
       </c>
       <c r="C2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D2" s="5">
         <v>31.202300000000001</v>
@@ -8533,10 +8533,10 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="49" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B3" s="49" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>101</v>
@@ -8560,13 +8560,13 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C4" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D4" s="49">
         <v>54.628120000000003</v>
@@ -8589,13 +8589,13 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="42" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B5" t="s">
         <v>118</v>
       </c>
       <c r="C5" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D5" s="5">
         <v>60.763770000000001</v>
@@ -8614,19 +8614,19 @@
         <v>58</v>
       </c>
       <c r="J5" s="49" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="K5" s="25"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="42" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B6" t="s">
         <v>118</v>
       </c>
       <c r="C6" s="49" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D6" s="5">
         <v>59.527259999999998</v>
@@ -8645,7 +8645,7 @@
         <v>58</v>
       </c>
       <c r="J6" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="K6" s="7">
         <v>15134</v>
@@ -8656,13 +8656,13 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B7" s="49" t="s">
         <v>118</v>
       </c>
       <c r="C7" s="49" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D7" s="5">
         <v>61.955469999999998</v>
@@ -8681,7 +8681,7 @@
         <v>58</v>
       </c>
       <c r="J7" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="K7" s="7">
         <v>15313</v>
@@ -8726,7 +8726,7 @@
         <v>93</v>
       </c>
       <c r="C9" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D9" s="5">
         <v>44.901260000000001</v>
@@ -8788,13 +8788,13 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="49" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B11" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C11" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D11" s="28">
         <v>-34.576279999999997</v>
@@ -8815,10 +8815,10 @@
     </row>
     <row r="12" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A12" s="49" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B12" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C12" t="s">
         <v>101</v>
@@ -8843,13 +8843,13 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="49" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B13" s="49" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C13" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D13" s="49">
         <v>51.4557</v>
@@ -8872,13 +8872,13 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D14" s="49">
         <v>51.459090000000003</v>
@@ -8890,13 +8890,13 @@
         <v>58</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="J14" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="K14" s="49"/>
       <c r="L14" s="49"/>
@@ -9002,10 +9002,10 @@
     </row>
     <row r="18" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
+        <v>253</v>
+      </c>
+      <c r="B18" t="s">
         <v>254</v>
-      </c>
-      <c r="B18" t="s">
-        <v>255</v>
       </c>
       <c r="C18" s="42" t="s">
         <v>59</v>
@@ -9029,13 +9029,13 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B19" s="49" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C19" s="49" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D19" s="28">
         <v>35.094740000000002</v>
@@ -9068,7 +9068,7 @@
         <v>97</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D20" s="5">
         <v>54.420279999999998</v>
@@ -9096,13 +9096,13 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B21" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D21" s="5">
         <v>53.346089999999997</v>
@@ -9123,13 +9123,13 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="42" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B22" s="42" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C22" s="49" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D22" s="5">
         <v>50.011139999999997</v>
@@ -9147,7 +9147,7 @@
         <v>58</v>
       </c>
       <c r="J22" s="49" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="K22" s="7">
         <v>15191</v>
@@ -9158,13 +9158,13 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="42" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B23" s="42" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C23" s="49" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D23" s="28">
         <v>51.560169999999999</v>
@@ -9182,7 +9182,7 @@
         <v>58</v>
       </c>
       <c r="J23" s="49" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="K23" s="7">
         <v>15313</v>
@@ -9193,13 +9193,13 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="42" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B24" s="42" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C24" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D24" s="5">
         <v>50.562809999999999</v>
@@ -9217,7 +9217,7 @@
         <v>58</v>
       </c>
       <c r="J24" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="K24" s="7">
         <v>15348</v>
@@ -9228,13 +9228,13 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="42" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B25" s="42" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C25" s="49" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D25" s="5">
         <v>50.631729999999997</v>
@@ -9252,7 +9252,7 @@
         <v>58</v>
       </c>
       <c r="J25" s="49" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="K25" s="7">
         <v>15191</v>
@@ -9263,13 +9263,13 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="42" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B26" s="42" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C26" s="49" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D26" s="5">
         <v>51.604869999999998</v>
@@ -9287,7 +9287,7 @@
         <v>58</v>
       </c>
       <c r="J26" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="K26" s="7">
         <v>15742</v>
@@ -9298,13 +9298,13 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B27" s="42" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C27" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D27" s="5">
         <v>51.235610000000001</v>
@@ -9322,7 +9322,7 @@
         <v>58</v>
       </c>
       <c r="J27" s="49" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="K27" s="7">
         <v>15523</v>
@@ -9333,13 +9333,13 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C28" s="49" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D28" s="5">
         <v>51.898339999999997</v>
@@ -9358,7 +9358,7 @@
         <v>58</v>
       </c>
       <c r="J28" s="49" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="K28" s="7">
         <v>15709</v>
@@ -9369,13 +9369,13 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="42" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B29" s="42" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C29" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D29" s="5">
         <v>51.530889999999999</v>
@@ -9393,7 +9393,7 @@
         <v>58</v>
       </c>
       <c r="J29" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="K29" s="7">
         <v>15678</v>
@@ -9404,10 +9404,10 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>265</v>
+      </c>
+      <c r="B30" t="s">
         <v>266</v>
-      </c>
-      <c r="B30" t="s">
-        <v>267</v>
       </c>
       <c r="C30" s="49" t="s">
         <v>101</v>
@@ -9430,13 +9430,13 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="42" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D31" s="49">
         <v>35.898510000000002</v>
@@ -9460,13 +9460,13 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="42" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B32" s="42" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C32" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D32" s="5">
         <v>35.832009999999997</v>
@@ -9484,19 +9484,19 @@
         <v>58</v>
       </c>
       <c r="J32" s="42" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="K32" s="25"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B33" s="49" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C33" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D33" s="28">
         <v>35.98742</v>
@@ -9518,13 +9518,13 @@
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C34" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D34" s="5">
         <v>35.876899999999999</v>
@@ -9542,7 +9542,7 @@
         <v>58</v>
       </c>
       <c r="J34" s="42" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="K34" s="25"/>
     </row>
@@ -9554,7 +9554,7 @@
         <v>114</v>
       </c>
       <c r="C35" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D35" s="5">
         <v>44.616667</v>
@@ -9580,7 +9580,7 @@
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="49" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B36" s="49" t="s">
         <v>142</v>
@@ -9598,10 +9598,10 @@
         <v>58</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
@@ -9645,7 +9645,7 @@
         <v>149</v>
       </c>
       <c r="C38" s="42" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D38" s="49">
         <v>59.481760000000001</v>
@@ -9706,13 +9706,13 @@
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B40" s="49" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C40" s="42" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="D40" s="49">
         <v>55.664354000000003</v>
@@ -9722,7 +9722,7 @@
       </c>
       <c r="F40" s="42"/>
       <c r="G40" s="42" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H40" s="2" t="s">
         <v>58</v>
@@ -9742,7 +9742,7 @@
         <v>89</v>
       </c>
       <c r="C41" s="42" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D41" s="5">
         <v>44.24194</v>
@@ -9770,7 +9770,7 @@
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="49" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B42" s="34" t="s">
         <v>79</v>
@@ -9795,7 +9795,7 @@
         <v>58</v>
       </c>
       <c r="J42" s="42" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="K42" s="7">
         <v>14246</v>
@@ -9812,7 +9812,7 @@
         <v>147</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D43" s="5">
         <v>58.142229999999998</v>
@@ -9840,13 +9840,13 @@
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="34" t="s">
+        <v>259</v>
+      </c>
+      <c r="B44" s="34" t="s">
         <v>260</v>
       </c>
-      <c r="B44" s="34" t="s">
-        <v>261</v>
-      </c>
       <c r="C44" s="49" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D44" s="28">
         <v>36.801349999999999</v>
@@ -9999,13 +9999,13 @@
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="42" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B49" s="42" t="s">
         <v>116</v>
       </c>
       <c r="C49" s="49" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D49" s="5">
         <v>56.122050000000002</v>
@@ -10023,19 +10023,19 @@
         <v>58</v>
       </c>
       <c r="J49" s="49" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="K49" s="25"/>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="49" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B50" s="49" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C50" s="49" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D50" s="5">
         <v>58.823520000000002</v>
@@ -10053,19 +10053,19 @@
         <v>58</v>
       </c>
       <c r="J50" s="34" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="K50" s="25"/>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="49" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B51" s="49" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C51" s="34" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D51" s="49">
         <v>58.84375</v>
@@ -10089,13 +10089,13 @@
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="34" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B52" s="34" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C52" s="42" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D52" s="5">
         <v>31.377310000000001</v>
@@ -10183,13 +10183,13 @@
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="49" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B55" s="49" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C55" s="49" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D55" s="5">
         <v>-5.771134</v>
@@ -10243,13 +10243,13 @@
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="42" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B57" s="42" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C57" s="49" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D57" s="5">
         <v>55.130389999999998</v>
@@ -10268,19 +10268,19 @@
         <v>58</v>
       </c>
       <c r="J57" s="42" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="K57" s="25"/>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="42" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B58" s="42" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C58" s="49" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D58" s="5">
         <v>55.538609999999998</v>
@@ -10299,7 +10299,7 @@
         <v>58</v>
       </c>
       <c r="J58" s="49" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="K58" s="7">
         <v>15191</v>
@@ -10310,13 +10310,13 @@
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C59" s="49" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D59" s="5">
         <v>53.854709999999997</v>
@@ -10335,7 +10335,7 @@
         <v>58</v>
       </c>
       <c r="J59" s="49" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="K59" s="7">
         <v>15742</v>
@@ -10346,13 +10346,13 @@
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" s="42" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B60" s="42" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C60" s="49" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D60" s="5">
         <v>56.530459999999998</v>
@@ -10370,7 +10370,7 @@
         <v>58</v>
       </c>
       <c r="J60" s="49" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="K60" s="7">
         <v>15523</v>
@@ -10381,13 +10381,13 @@
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C61" s="49" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D61" s="5">
         <v>53.568959999999997</v>
@@ -10405,7 +10405,7 @@
         <v>58</v>
       </c>
       <c r="J61" s="49" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="K61" s="7">
         <v>15134</v>
@@ -10448,13 +10448,13 @@
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="49" t="s">
+        <v>263</v>
+      </c>
+      <c r="B63" s="49" t="s">
         <v>264</v>
       </c>
-      <c r="B63" s="49" t="s">
-        <v>265</v>
-      </c>
       <c r="C63" s="49" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D63" s="28">
         <v>35.732170000000004</v>
@@ -10508,13 +10508,13 @@
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" s="49" t="s">
+        <v>261</v>
+      </c>
+      <c r="B65" s="49" t="s">
         <v>262</v>
       </c>
-      <c r="B65" s="49" t="s">
-        <v>263</v>
-      </c>
       <c r="C65" s="49" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D65" s="28">
         <v>36.77402</v>
@@ -10628,7 +10628,7 @@
         <v>77</v>
       </c>
       <c r="C69" s="42" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D69" s="5">
         <v>49.660020000000003</v>
@@ -10656,13 +10656,13 @@
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" s="49" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B70" s="49" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C70" s="49" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D70" s="49">
         <v>51.886360000000003</v>
@@ -10689,7 +10689,7 @@
         <v>78</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D71" s="5">
         <v>35.506050000000002</v>
@@ -10716,13 +10716,13 @@
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B72" s="42" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C72" s="42" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D72" s="5">
         <v>41.309190000000001</v>
@@ -10777,10 +10777,10 @@
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" s="49" t="s">
+        <v>249</v>
+      </c>
+      <c r="B74" s="49" t="s">
         <v>250</v>
-      </c>
-      <c r="B74" s="49" t="s">
-        <v>251</v>
       </c>
       <c r="C74" s="49" t="s">
         <v>117</v>
@@ -10838,7 +10838,7 @@
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" s="42" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B76" s="42" t="s">
         <v>143</v>
@@ -10871,13 +10871,13 @@
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" s="49" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B77" s="49" t="s">
         <v>98</v>
       </c>
       <c r="C77" s="49" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D77" s="5">
         <v>54.190260000000002</v>
@@ -10905,13 +10905,13 @@
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
+        <v>277</v>
+      </c>
+      <c r="B78" t="s">
         <v>278</v>
       </c>
-      <c r="B78" t="s">
-        <v>279</v>
-      </c>
       <c r="C78" s="49" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D78" s="5">
         <v>41.024039999999999</v>
@@ -10963,10 +10963,10 @@
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" s="42" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B80" s="34" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C80" s="34" t="s">
         <v>119</v>
@@ -11025,7 +11025,7 @@
         <v>100</v>
       </c>
       <c r="C82" s="42" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D82" s="5">
         <v>47.737690000000001</v>
@@ -11080,13 +11080,13 @@
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" s="49" t="s">
+        <v>273</v>
+      </c>
+      <c r="B84" s="49" t="s">
         <v>274</v>
       </c>
-      <c r="B84" s="49" t="s">
-        <v>275</v>
-      </c>
       <c r="C84" s="42" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D84" s="5">
         <v>40.817340000000002</v>
@@ -11132,10 +11132,10 @@
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86" s="49" t="s">
+        <v>275</v>
+      </c>
+      <c r="B86" s="49" t="s">
         <v>276</v>
-      </c>
-      <c r="B86" s="49" t="s">
-        <v>277</v>
       </c>
       <c r="C86" s="42" t="s">
         <v>138</v>
@@ -11191,13 +11191,13 @@
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B88" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D88" s="49">
         <v>43.648890000000002</v>
@@ -11217,13 +11217,13 @@
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89" s="49" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B89" s="49" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D89" s="5">
         <v>-22.931239999999999</v>
@@ -11250,10 +11250,10 @@
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B90" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C90" s="49" t="s">
         <v>117</v>
@@ -11283,7 +11283,7 @@
         <v>133</v>
       </c>
       <c r="C91" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D91" s="5">
         <v>46.2</v>
@@ -11304,7 +11304,7 @@
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92" s="42" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B92" s="42" t="s">
         <v>102</v>
@@ -11337,13 +11337,13 @@
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93" s="49" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B93" s="49" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C93" s="42" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D93" s="28">
         <v>31.264520000000001</v>
@@ -11364,13 +11364,13 @@
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>68</v>
       </c>
       <c r="C94" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D94" s="5">
         <v>50.769660000000002</v>
@@ -11388,19 +11388,19 @@
         <v>58</v>
       </c>
       <c r="J94" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="K94" s="25"/>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95" s="42" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B95" s="42" t="s">
         <v>68</v>
       </c>
       <c r="C95" s="49" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D95" s="5">
         <v>50.800649999999997</v>
@@ -11418,19 +11418,19 @@
         <v>58</v>
       </c>
       <c r="J95" s="42" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="K95" s="25"/>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B96" t="s">
         <v>68</v>
       </c>
       <c r="C96" s="42" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D96" s="49">
         <v>50.79166</v>
@@ -11442,13 +11442,13 @@
         <v>58</v>
       </c>
       <c r="H96" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="I96" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="J96" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="K96" s="49"/>
       <c r="L96" s="49"/>
@@ -11482,13 +11482,13 @@
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98" s="42" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B98" s="42" t="s">
         <v>68</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D98" s="5">
         <v>50.7789</v>
@@ -11507,7 +11507,7 @@
         <v>58</v>
       </c>
       <c r="J98" s="49" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="K98" s="26"/>
     </row>
@@ -11547,10 +11547,10 @@
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B100" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>103</v>
@@ -11643,10 +11643,10 @@
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B103" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>103</v>
@@ -11669,10 +11669,10 @@
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B104" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>103</v>
@@ -11729,10 +11729,10 @@
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A106" s="49" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B106" s="49" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>69</v>
@@ -11756,10 +11756,10 @@
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B107" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C107" s="42" t="s">
         <v>69</v>
@@ -11783,13 +11783,13 @@
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A108" s="49" t="s">
-        <v>155</v>
+        <v>536</v>
       </c>
       <c r="B108" s="49" t="s">
         <v>75</v>
       </c>
       <c r="C108" s="49" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D108" s="5">
         <v>36.615169999999999</v>
@@ -11845,13 +11845,13 @@
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A110" s="42" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B110" s="42" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C110" s="49" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D110" s="5">
         <v>31.275690000000001</v>
@@ -11874,10 +11874,10 @@
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C111" s="42" t="s">
         <v>124</v>
@@ -11907,7 +11907,7 @@
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B112" s="2" t="s">
         <v>144</v>
@@ -11926,10 +11926,10 @@
         <v>58</v>
       </c>
       <c r="H112" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="I112" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="J112" s="49"/>
     </row>
@@ -11968,10 +11968,10 @@
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A114" s="49" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B114" s="49" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C114" s="49" t="s">
         <v>69</v>
@@ -11995,10 +11995,10 @@
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B115" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>69</v>
@@ -12013,10 +12013,10 @@
         <v>58</v>
       </c>
       <c r="H115" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="I115" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.25">
@@ -12551,19 +12551,19 @@
         <v>57</v>
       </c>
       <c r="B1" s="40" t="s">
+        <v>510</v>
+      </c>
+      <c r="C1" s="40" t="s">
         <v>511</v>
       </c>
-      <c r="C1" s="40" t="s">
+      <c r="D1" s="40" t="s">
         <v>512</v>
       </c>
-      <c r="D1" s="40" t="s">
+      <c r="E1" s="40" t="s">
         <v>513</v>
       </c>
-      <c r="E1" s="40" t="s">
+      <c r="F1" s="40" t="s">
         <v>514</v>
-      </c>
-      <c r="F1" s="40" t="s">
-        <v>515</v>
       </c>
       <c r="G1" s="40" t="s">
         <v>62</v>
@@ -12572,24 +12572,24 @@
         <v>61</v>
       </c>
       <c r="I1" s="40" t="s">
+        <v>515</v>
+      </c>
+      <c r="J1" s="40" t="s">
         <v>516</v>
-      </c>
-      <c r="J1" s="40" t="s">
-        <v>517</v>
       </c>
       <c r="K1" s="40" t="s">
         <v>66</v>
       </c>
       <c r="L1" s="40" t="s">
+        <v>517</v>
+      </c>
+      <c r="M1" s="40" t="s">
         <v>518</v>
-      </c>
-      <c r="M1" s="40" t="s">
-        <v>519</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="37" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B2" s="37" t="s">
         <v>118</v>
@@ -12598,7 +12598,7 @@
         <v>117</v>
       </c>
       <c r="D2" s="37" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E2" s="38">
         <v>0.4</v>
@@ -12613,24 +12613,24 @@
         <v>14712</v>
       </c>
       <c r="I2" s="37" t="s">
+        <v>504</v>
+      </c>
+      <c r="J2" s="35" t="s">
         <v>505</v>
-      </c>
-      <c r="J2" s="35" t="s">
-        <v>506</v>
       </c>
       <c r="K2" s="37" t="s">
         <v>18</v>
       </c>
       <c r="L2" s="39" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="M2" s="35" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="37" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B3" s="37" t="s">
         <v>118</v>
@@ -12639,7 +12639,7 @@
         <v>117</v>
       </c>
       <c r="D3" s="37" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="E3" s="38">
         <v>0.4</v>
@@ -12654,19 +12654,19 @@
         <v>14712</v>
       </c>
       <c r="I3" s="37" t="s">
+        <v>504</v>
+      </c>
+      <c r="J3" s="35" t="s">
         <v>505</v>
       </c>
-      <c r="J3" s="35" t="s">
+      <c r="K3" s="35" t="s">
+        <v>523</v>
+      </c>
+      <c r="L3" s="39" t="s">
         <v>506</v>
       </c>
-      <c r="K3" s="35" t="s">
-        <v>524</v>
-      </c>
-      <c r="L3" s="39" t="s">
-        <v>507</v>
-      </c>
       <c r="M3" s="35" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
   </sheetData>
@@ -12692,48 +12692,48 @@
         <v>57</v>
       </c>
       <c r="B1" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="C1" s="12" t="s">
         <v>156</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="D1" s="12" t="s">
         <v>157</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="E1" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="F1" s="12" t="s">
         <v>159</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="G1" s="12" t="s">
         <v>160</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="H1" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="I1" s="13" t="s">
         <v>162</v>
-      </c>
-      <c r="I1" s="13" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C2" s="15" t="s">
         <v>124</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E2" s="16">
         <v>14493</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G2" s="14">
         <v>6000</v>
@@ -12767,7 +12767,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
@@ -12822,7 +12822,7 @@
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
@@ -12877,7 +12877,7 @@
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
@@ -13027,7 +13027,7 @@
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
@@ -13037,7 +13037,7 @@
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
   </sheetData>
